--- a/健康/记录表2020.xlsx
+++ b/健康/记录表2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00MyDocuments\MySelf\00健康报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46264135-3457-440A-91B8-AB117BE812A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057861A-61AE-4538-A2E5-5CF0DF0568F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,6 +878,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -905,34 +933,6 @@
     <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1420,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1440,15 +1440,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="M1" s="12"/>
@@ -1458,12 +1458,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1475,37 +1475,37 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="60">
         <f>B4/(B3/100)^2</f>
-        <v>28.280724242909784</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+        <v>27.239224483255885</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>70.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="54" t="str">
+      <c r="E5" s="45" t="str">
         <f>IF(E3&lt;18.5,"體重過輕",IF(E3&lt;24,"正常範圍",IF(E3&lt;27,"過重",IF(E3&lt;30,"輕度肥胖",IF(E3&lt;35,"中度肥胖","重度肥胖")))))</f>
         <v>輕度肥胖</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="21.75" customHeight="1">
       <c r="A6" s="7"/>
@@ -1528,12 +1528,12 @@
     <row r="7" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="8" spans="1:13" ht="19.7" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="19.7" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1542,72 +1542,67 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="19.7" customHeight="1">
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:13" ht="19.7" customHeight="1">
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D13" s="47"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D14" s="47"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D15" s="48"/>
-      <c r="E15" s="45" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
     </row>
   </sheetData>
   <sheetProtection password="EB07" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D12:D15"/>
@@ -1616,6 +1611,11 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4496,7 +4496,7 @@
   <dimension ref="A1:HF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -4634,9 +4634,15 @@
       <c r="K2" s="18">
         <v>68.3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="L2" s="18">
+        <v>67.8</v>
+      </c>
+      <c r="M2" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="N2" s="18">
+        <v>67</v>
+      </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
@@ -4684,6 +4690,12 @@
       <c r="J3" s="17">
         <v>433</v>
       </c>
+      <c r="K3" s="17">
+        <v>312</v>
+      </c>
+      <c r="L3" s="17">
+        <v>467</v>
+      </c>
     </row>
     <row r="4" spans="1:214">
       <c r="A4" s="19" t="s">
@@ -4717,10 +4729,10 @@
         <v>1244</v>
       </c>
       <c r="K4" s="17">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="L4" s="17">
-        <v>1500</v>
+        <v>965</v>
       </c>
       <c r="M4" s="17">
         <v>1500</v>
@@ -4816,11 +4828,11 @@
       </c>
       <c r="K5" s="17">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>468</v>
       </c>
       <c r="L5" s="17">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>702</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" si="0"/>
@@ -4933,11 +4945,11 @@
       </c>
       <c r="K6" s="20">
         <f t="shared" si="1"/>
-        <v>-3.896103896103896E-2</v>
+        <v>6.077922077922078E-2</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="1"/>
-        <v>-3.896103896103896E-2</v>
+        <v>9.1168831168831163E-2</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" si="1"/>
@@ -5014,7 +5026,7 @@
       </c>
       <c r="B8" s="22" t="str">
         <f>IF(B2=0,"",IF(B2-Base!B4&gt;0,"N",IF(B2=0,"O","Y")))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IF(C2=0,"",IF(C2-B2&gt;0,"N",IF(C2-B2=0,"=","Y")))</f>
@@ -5054,15 +5066,15 @@
       </c>
       <c r="L8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="M8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="N8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="O8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -5909,17 +5921,17 @@
         <f>IF(K2="","",K2-Base!$G$6)</f>
         <v>8.3863999999999876</v>
       </c>
-      <c r="L9" s="24" t="str">
+      <c r="L9" s="24">
         <f>IF(L2="","",L2-Base!$G$6)</f>
-        <v/>
-      </c>
-      <c r="M9" s="24" t="str">
+        <v>7.8863999999999876</v>
+      </c>
+      <c r="M9" s="24">
         <f>IF(M2="","",M2-Base!$G$6)</f>
-        <v/>
-      </c>
-      <c r="N9" s="24" t="str">
+        <v>7.5863999999999905</v>
+      </c>
+      <c r="N9" s="24">
         <f>IF(N2="","",N2-Base!$G$6)</f>
-        <v/>
+        <v>7.0863999999999905</v>
       </c>
       <c r="O9" s="24" t="str">
         <f>IF(O2="","",O2-Base!$G$6)</f>
@@ -6162,35 +6174,35 @@
       </c>
       <c r="D14" s="33">
         <f>ROUNDDOWN(AVERAGE(I2:O2),2)</f>
-        <v>68.56</v>
+        <v>68</v>
       </c>
       <c r="E14" s="17">
         <f>D13-D14</f>
-        <v>-0.40999999999999659</v>
+        <v>0.15000000000000568</v>
       </c>
       <c r="F14" s="17">
         <f>SUM($I$5:$O$5)</f>
-        <v>-818</v>
+        <v>952</v>
       </c>
       <c r="G14" s="17">
         <f>F14/7700</f>
-        <v>-0.10623376623376624</v>
+        <v>0.12363636363636364</v>
       </c>
       <c r="H14" s="17">
         <f>(G14-E14)*7700</f>
-        <v>2338.9999999999736</v>
+        <v>-203.00000000004374</v>
       </c>
       <c r="I14" s="17">
         <f>SUM($I$3:$O$3)</f>
-        <v>711</v>
+        <v>1490</v>
       </c>
       <c r="J14" s="17">
         <f>SUM($I$4:$O$4)</f>
-        <v>9929</v>
+        <v>8938</v>
       </c>
       <c r="K14" s="17">
         <f>J14/7</f>
-        <v>1418.4285714285713</v>
+        <v>1276.8571428571429</v>
       </c>
     </row>
     <row r="15" spans="1:214">
@@ -6292,11 +6304,11 @@
       </c>
       <c r="F19" s="17">
         <f t="shared" si="8"/>
-        <v>-3813</v>
+        <v>-2043</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="8"/>
-        <v>-0.49519480519480519</v>
+        <v>-0.2653246753246753</v>
       </c>
       <c r="H19" s="17" t="e">
         <f t="shared" si="8"/>
@@ -6304,11 +6316,11 @@
       </c>
       <c r="I19" s="17">
         <f t="shared" si="8"/>
-        <v>3590</v>
+        <v>4369</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" si="8"/>
-        <v>41003</v>
+        <v>40012</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6325,11 +6337,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" si="9"/>
-        <v>-953.25</v>
+        <v>-510.75</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="9"/>
-        <v>-0.1237987012987013</v>
+        <v>-6.6331168831168824E-2</v>
       </c>
       <c r="H20" s="17" t="e">
         <f t="shared" si="9"/>
@@ -6337,11 +6349,11 @@
       </c>
       <c r="I20" s="17">
         <f t="shared" si="9"/>
-        <v>897.5</v>
+        <v>1092.25</v>
       </c>
       <c r="J20" s="17">
         <f>AVERAGE(J13:J16)/7</f>
-        <v>1464.3928571428571</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15">
@@ -6350,7 +6362,7 @@
       </c>
       <c r="D21" s="17">
         <f>MIN(B$2:AJ$2)</f>
-        <v>67.900000000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15">
@@ -6368,7 +6380,7 @@
       </c>
       <c r="D23" s="17">
         <f>AVERAGE(B$2:AJ$2)</f>
-        <v>68.28</v>
+        <v>68.084615384615375</v>
       </c>
     </row>
   </sheetData>
@@ -14976,7 +14988,7 @@
       </c>
       <c r="B8" s="22" t="str">
         <f>IF(B2=0,"",IF(B2-Base!B4&gt;0,"N",IF(B2=0,"O","Y")))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IF(C2=0,"",IF(C2-B2&gt;0,"N",IF(C2-B2=0,"=","Y")))</f>
@@ -16846,7 +16858,7 @@
       </c>
       <c r="B8" s="22" t="str">
         <f>IF(B2=0,"",IF(B2-Base!B4&gt;0,"N",IF(B2=0,"O","Y")))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IF(C2=0,"",IF(C2-B2&gt;0,"N",IF(C2-B2=0,"=","Y")))</f>
@@ -18996,7 +19008,7 @@
       </c>
       <c r="B8" s="22" t="str">
         <f>IF(B2=0,"",IF(B2-Base!B4&gt;0,"N",IF(B2=0,"O","Y")))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IF(C2=0,"",IF(C2-B2&gt;0,"N",IF(C2-B2=0,"=","Y")))</f>
